--- a/Code/Results/Cases/Case_1_101/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_101/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2610549644477231</v>
+        <v>0.1422219981393198</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.07859046299660122</v>
+        <v>0.0236562874145676</v>
       </c>
       <c r="E2">
-        <v>0.01685650152030238</v>
+        <v>0.06297198839646345</v>
       </c>
       <c r="F2">
-        <v>7.088582179030084</v>
+        <v>5.93924082002718</v>
       </c>
       <c r="G2">
-        <v>0.0008463158229532416</v>
+        <v>0.002640430703189177</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1715689056489751</v>
+        <v>0.2049883900821001</v>
       </c>
       <c r="K2">
-        <v>1.840751968385945</v>
+        <v>1.58633087707787</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3584929306972953</v>
+        <v>0.4352249282588616</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2277607327792452</v>
+        <v>0.1332389306771375</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.06820095151194039</v>
+        <v>0.02111473659372365</v>
       </c>
       <c r="E3">
-        <v>0.01661655670125572</v>
+        <v>0.06350821472012491</v>
       </c>
       <c r="F3">
-        <v>6.410308472591311</v>
+        <v>5.756369236366282</v>
       </c>
       <c r="G3">
-        <v>0.000856823939196761</v>
+        <v>0.002646582247319672</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1582228104076506</v>
+        <v>0.2018037762405527</v>
       </c>
       <c r="K3">
-        <v>1.591521740973945</v>
+        <v>1.551979390455529</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3139943078940135</v>
+        <v>0.4313032686060936</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2075945226784484</v>
+        <v>0.1278006476182725</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.06194682640871463</v>
+        <v>0.01956116484976889</v>
       </c>
       <c r="E4">
-        <v>0.01650658713724429</v>
+        <v>0.06386878086799364</v>
       </c>
       <c r="F4">
-        <v>6.003270927933443</v>
+        <v>5.645234355723602</v>
       </c>
       <c r="G4">
-        <v>0.0008634237267719617</v>
+        <v>0.002650553865668184</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1502461200336498</v>
+        <v>0.199895959969659</v>
       </c>
       <c r="K4">
-        <v>1.443634401673705</v>
+        <v>1.532595508604857</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.287712242112903</v>
+        <v>0.4293178096188228</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1994379468936955</v>
+        <v>0.1256039844385981</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.05942413848897843</v>
+        <v>0.01892967298528703</v>
       </c>
       <c r="E5">
-        <v>0.01647078496189192</v>
+        <v>0.06402360523017681</v>
       </c>
       <c r="F5">
-        <v>5.839455468121287</v>
+        <v>5.600229505118534</v>
       </c>
       <c r="G5">
-        <v>0.0008661529642167362</v>
+        <v>0.002652221433860459</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1470439493504969</v>
+        <v>0.199130373132661</v>
       </c>
       <c r="K5">
-        <v>1.384505232748666</v>
+        <v>1.525124112823136</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2772350353148809</v>
+        <v>0.4286146895431528</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1980870291195629</v>
+        <v>0.1252404077234104</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.05900666149315015</v>
+        <v>0.01882490668131709</v>
       </c>
       <c r="E6">
-        <v>0.01646537380628832</v>
+        <v>0.06404979071728079</v>
       </c>
       <c r="F6">
-        <v>5.812369556729777</v>
+        <v>5.592773450594649</v>
       </c>
       <c r="G6">
-        <v>0.0008666086259646968</v>
+        <v>0.002652501302927458</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1465149788163345</v>
+        <v>0.1990039618791073</v>
       </c>
       <c r="K6">
-        <v>1.374751217806221</v>
+        <v>1.523909272695647</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2755085896077816</v>
+        <v>0.428504329942939</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2074842823648027</v>
+        <v>0.1277709437305248</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.06191270655076409</v>
+        <v>0.01955264203804319</v>
       </c>
       <c r="E7">
-        <v>0.01650606828898482</v>
+        <v>0.06387083691461015</v>
       </c>
       <c r="F7">
-        <v>6.001053726248983</v>
+        <v>5.644626263790656</v>
       </c>
       <c r="G7">
-        <v>0.0008634603697936869</v>
+        <v>0.002650576155940848</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1502027464984863</v>
+        <v>0.199885587081198</v>
       </c>
       <c r="K7">
-        <v>1.442832560417799</v>
+        <v>1.532493017430824</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2875700353989288</v>
+        <v>0.429307898368414</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.24951253157991</v>
+        <v>0.1391085951186426</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.07497869886029918</v>
+        <v>0.0227784290155455</v>
       </c>
       <c r="E8">
-        <v>0.01676577269035917</v>
+        <v>0.06315038735699829</v>
       </c>
       <c r="F8">
-        <v>6.852558158962012</v>
+        <v>5.875944890208189</v>
       </c>
       <c r="G8">
-        <v>0.0008499100059434239</v>
+        <v>0.002642511487363905</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1669179102365135</v>
+        <v>0.2038804088939514</v>
       </c>
       <c r="K8">
-        <v>1.753650849467448</v>
+        <v>1.574130851720724</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3429157121630837</v>
+        <v>0.4337848973835534</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3345374384385877</v>
+        <v>0.1619555848001539</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1018747520795387</v>
+        <v>0.02916622327664697</v>
       </c>
       <c r="E9">
-        <v>0.01759095451441084</v>
+        <v>0.06198547473681515</v>
       </c>
       <c r="F9">
-        <v>8.613146855618396</v>
+        <v>6.338946363880041</v>
       </c>
       <c r="G9">
-        <v>0.0008243776034214696</v>
+        <v>0.002628232026333055</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2017500630179825</v>
+        <v>0.2120962445639947</v>
       </c>
       <c r="K9">
-        <v>2.411999498388383</v>
+        <v>1.669426863508875</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4611712842307725</v>
+        <v>0.4459298206112976</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3992428797856604</v>
+        <v>0.1791177055421542</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.122861463875509</v>
+        <v>0.0339070825373966</v>
       </c>
       <c r="E10">
-        <v>0.01842094491729362</v>
+        <v>0.06127991148028755</v>
       </c>
       <c r="F10">
-        <v>9.98760924060619</v>
+        <v>6.685245443518369</v>
       </c>
       <c r="G10">
-        <v>0.0008060413858368686</v>
+        <v>0.002618665235652102</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.229113112816826</v>
+        <v>0.2183725938110896</v>
       </c>
       <c r="K10">
-        <v>2.938465968214217</v>
+        <v>1.747899756570746</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5563526543433213</v>
+        <v>0.4569258596651409</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4293321045562237</v>
+        <v>0.1870075621961433</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1327952163016022</v>
+        <v>0.03607636725023156</v>
       </c>
       <c r="E11">
-        <v>0.0188553945114478</v>
+        <v>0.06099140135533077</v>
       </c>
       <c r="F11">
-        <v>10.63729957115925</v>
+        <v>6.844208980118992</v>
       </c>
       <c r="G11">
-        <v>0.0007977352726419071</v>
+        <v>0.00261451126866552</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2420845787781332</v>
+        <v>0.2212816639493624</v>
       </c>
       <c r="K11">
-        <v>3.190782166920997</v>
+        <v>1.785468009893009</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6020963888103523</v>
+        <v>0.4623833745018615</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4408362710106246</v>
+        <v>0.1900071510025754</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1366244653468272</v>
+        <v>0.03689980724732322</v>
       </c>
       <c r="E12">
-        <v>0.0190289100343275</v>
+        <v>0.06088680378903177</v>
       </c>
       <c r="F12">
-        <v>10.88751466079032</v>
+        <v>6.90461683841022</v>
       </c>
       <c r="G12">
-        <v>0.0007945894358207115</v>
+        <v>0.002612966551834872</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2470856409887148</v>
+        <v>0.2223911292819878</v>
       </c>
       <c r="K12">
-        <v>3.288527424163988</v>
+        <v>1.799965581916183</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6198345467062154</v>
+        <v>0.4645158539777441</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4383534718953115</v>
+        <v>0.1893606082664547</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1357965523723692</v>
+        <v>0.03672237412041568</v>
       </c>
       <c r="E13">
-        <v>0.01899112569364725</v>
+        <v>0.06090912390236625</v>
       </c>
       <c r="F13">
-        <v>10.83342797206569</v>
+        <v>6.891597405935784</v>
       </c>
       <c r="G13">
-        <v>0.0007952670680195833</v>
+        <v>0.00261329797842504</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.246004369721831</v>
+        <v>0.2221518345797762</v>
       </c>
       <c r="K13">
-        <v>3.267372138177791</v>
+        <v>1.796831167256528</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6159946702721015</v>
+        <v>0.4640536524368599</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.430276254979745</v>
+        <v>0.1872541023845997</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1331088216958989</v>
+        <v>0.03614407156641164</v>
       </c>
       <c r="E14">
-        <v>0.01886948423261892</v>
+        <v>0.06098270282556761</v>
       </c>
       <c r="F14">
-        <v>10.65779664086875</v>
+        <v>6.849174490364135</v>
       </c>
       <c r="G14">
-        <v>0.0007974765077280811</v>
+        <v>0.002614383617752172</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2424941479466014</v>
+        <v>0.2213727821001044</v>
       </c>
       <c r="K14">
-        <v>3.198777413602386</v>
+        <v>1.786655283369271</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.603546972087976</v>
+        <v>0.4625574933133905</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4253435657222298</v>
+        <v>0.1859653520231745</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.131471693909063</v>
+        <v>0.03579010707031216</v>
       </c>
       <c r="E15">
-        <v>0.01879617375438869</v>
+        <v>0.06102837790490412</v>
       </c>
       <c r="F15">
-        <v>10.55078520189358</v>
+        <v>6.823216998190674</v>
       </c>
       <c r="G15">
-        <v>0.0007988296092191458</v>
+        <v>0.002615052283450916</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2403560776181166</v>
+        <v>0.2208966173039073</v>
       </c>
       <c r="K15">
-        <v>3.157059055616912</v>
+        <v>1.780457660199772</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5959786718495224</v>
+        <v>0.4616496373683674</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3972909593010883</v>
+        <v>0.1786037473397926</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1222210298081023</v>
+        <v>0.03376558281765085</v>
       </c>
       <c r="E16">
-        <v>0.01839376442262086</v>
+        <v>0.06129941833083308</v>
       </c>
       <c r="F16">
-        <v>9.945697686693052</v>
+        <v>6.674886107005733</v>
       </c>
       <c r="G16">
-        <v>0.0008065844627606347</v>
+        <v>0.002618940677038052</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.228277062197435</v>
+        <v>0.2181835736562689</v>
       </c>
       <c r="K16">
-        <v>2.922263509977711</v>
+        <v>1.745482418807427</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5534176572590113</v>
+        <v>0.4565783914815498</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3802598740252137</v>
+        <v>0.1741088107454232</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1166530186538353</v>
+        <v>0.03252695510667536</v>
       </c>
       <c r="E17">
-        <v>0.01816201266580997</v>
+        <v>0.06147399656702746</v>
       </c>
       <c r="F17">
-        <v>9.581204587266797</v>
+        <v>6.584260590507938</v>
       </c>
       <c r="G17">
-        <v>0.0008113471361604729</v>
+        <v>0.002621376672337151</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2210102499835003</v>
+        <v>0.2165330981926772</v>
       </c>
       <c r="K17">
-        <v>2.781742460943207</v>
+        <v>1.724506953883491</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5279766431054469</v>
+        <v>0.4535842253022508</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3705245684721348</v>
+        <v>0.1715312295997933</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1134860357105936</v>
+        <v>0.03181570962253488</v>
       </c>
       <c r="E18">
-        <v>0.01803401340957578</v>
+        <v>0.06157746478234039</v>
       </c>
       <c r="F18">
-        <v>9.373811943378371</v>
+        <v>6.532269448865605</v>
       </c>
       <c r="G18">
-        <v>0.0008140901848762016</v>
+        <v>0.002622796441101434</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2168789438039838</v>
+        <v>0.2155888576220377</v>
       </c>
       <c r="K18">
-        <v>2.702101089479754</v>
+        <v>1.712618343534245</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.513569371938317</v>
+        <v>0.4519048988341225</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3672383053369259</v>
+        <v>0.1706598431823494</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1124195291498467</v>
+        <v>0.03157509198686625</v>
       </c>
       <c r="E19">
-        <v>0.01799156208192798</v>
+        <v>0.0616130224829643</v>
       </c>
       <c r="F19">
-        <v>9.303960598141231</v>
+        <v>6.514689015308704</v>
       </c>
       <c r="G19">
-        <v>0.0008150197221503738</v>
+        <v>0.00262328035858641</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2154880790878053</v>
+        <v>0.2152700213562184</v>
       </c>
       <c r="K19">
-        <v>2.675329158688186</v>
+        <v>1.708623209842216</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5087282966657298</v>
+        <v>0.4513436546652585</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3820664895195875</v>
+        <v>0.1745864986220766</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1172419791563044</v>
+        <v>0.03265868581303266</v>
       </c>
       <c r="E20">
-        <v>0.01818612915447382</v>
+        <v>0.06145509627759616</v>
       </c>
       <c r="F20">
-        <v>9.619767641715384</v>
+        <v>6.593893892078427</v>
       </c>
       <c r="G20">
-        <v>0.0008108397973203389</v>
+        <v>0.002621115427636502</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2217787157456073</v>
+        <v>0.2167082686915975</v>
       </c>
       <c r="K20">
-        <v>2.796576391917029</v>
+        <v>1.726721604127277</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.530661088440155</v>
+        <v>0.4538985232146757</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4326456052789496</v>
+        <v>0.1878725122224978</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1338963350938229</v>
+        <v>0.03631387804719566</v>
       </c>
       <c r="E21">
-        <v>0.01890496187836632</v>
+        <v>0.06096096467144996</v>
       </c>
       <c r="F21">
-        <v>10.70926411841015</v>
+        <v>6.861629330985068</v>
       </c>
       <c r="G21">
-        <v>0.0007968276036747665</v>
+        <v>0.002614063972426093</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2435226479538954</v>
+        <v>0.2216013944037485</v>
       </c>
       <c r="K21">
-        <v>3.218862544626916</v>
+        <v>1.78963680569251</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6071913043227894</v>
+        <v>0.4629951618137795</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4663523851806559</v>
+        <v>0.1966248754483928</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1451817097249801</v>
+        <v>0.03871436808326223</v>
       </c>
       <c r="E22">
-        <v>0.01942769164636893</v>
+        <v>0.06066514843950621</v>
       </c>
       <c r="F22">
-        <v>11.44614291042529</v>
+        <v>7.03784746605254</v>
       </c>
       <c r="G22">
-        <v>0.0007876636907591093</v>
+        <v>0.00260962031443931</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2582606852776621</v>
+        <v>0.2248452220866994</v>
       </c>
       <c r="K22">
-        <v>3.507877897071694</v>
+        <v>1.832337928446577</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6596713640600811</v>
+        <v>0.4693242639454169</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4482970702128739</v>
+        <v>0.1919472514772025</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1391173421316267</v>
+        <v>0.03743206547738964</v>
       </c>
       <c r="E23">
-        <v>0.01914355195438588</v>
+        <v>0.06082055283233956</v>
       </c>
       <c r="F23">
-        <v>11.05033106752592</v>
+        <v>6.943681242629395</v>
       </c>
       <c r="G23">
-        <v>0.0007925572834432684</v>
+        <v>0.002611976949792815</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2503413458894386</v>
+        <v>0.2231096949909386</v>
       </c>
       <c r="K23">
-        <v>3.352299004657198</v>
+        <v>1.809401966424502</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6314120922781186</v>
+        <v>0.4659110530270496</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3812495451136471</v>
+        <v>0.1743705153182873</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1169756046457167</v>
+        <v>0.03259912770033679</v>
       </c>
       <c r="E24">
-        <v>0.01817520983506071</v>
+        <v>0.06146363143905909</v>
       </c>
       <c r="F24">
-        <v>9.602326608745045</v>
+        <v>6.589538332172907</v>
       </c>
       <c r="G24">
-        <v>0.0008110691493936617</v>
+        <v>0.002621233476446099</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2214311486011979</v>
+        <v>0.2166290596654221</v>
       </c>
       <c r="K24">
-        <v>2.789866427973209</v>
+        <v>1.725719829968426</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.529446772948873</v>
+        <v>0.4537562981491376</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3111942835794395</v>
+        <v>0.1557089270916947</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.09441952491849293</v>
+        <v>0.02743049289203725</v>
       </c>
       <c r="E25">
-        <v>0.01733093572987343</v>
+        <v>0.06227416235906169</v>
       </c>
       <c r="F25">
-        <v>8.124704372146113</v>
+        <v>6.212645293008563</v>
       </c>
       <c r="G25">
-        <v>0.0008311936310133102</v>
+        <v>0.00263193183729944</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1920576912140106</v>
+        <v>0.2098320000983591</v>
       </c>
       <c r="K25">
-        <v>2.227440923234241</v>
+        <v>1.642171689717429</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4279146949367743</v>
+        <v>0.4422818177564309</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_101/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_101/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1422219981393198</v>
+        <v>0.2610549644475952</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0236562874145676</v>
+        <v>0.07859046299696359</v>
       </c>
       <c r="E2">
-        <v>0.06297198839646345</v>
+        <v>0.01685650152024643</v>
       </c>
       <c r="F2">
-        <v>5.93924082002718</v>
+        <v>7.088582179030055</v>
       </c>
       <c r="G2">
-        <v>0.002640430703189177</v>
+        <v>0.0008463158229505435</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2049883900821001</v>
+        <v>0.171568905649174</v>
       </c>
       <c r="K2">
-        <v>1.58633087707787</v>
+        <v>1.84075196838603</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4352249282588616</v>
+        <v>0.3584929306972811</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1332389306771375</v>
+        <v>0.2277607327793021</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02111473659372365</v>
+        <v>0.06820095151220329</v>
       </c>
       <c r="E3">
-        <v>0.06350821472012491</v>
+        <v>0.01661655670128859</v>
       </c>
       <c r="F3">
-        <v>5.756369236366282</v>
+        <v>6.410308472591282</v>
       </c>
       <c r="G3">
-        <v>0.002646582247319672</v>
+        <v>0.0008568239390402965</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2018037762405527</v>
+        <v>0.1582228104076577</v>
       </c>
       <c r="K3">
-        <v>1.551979390455529</v>
+        <v>1.59152174097386</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4313032686060936</v>
+        <v>0.3139943078939993</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1278006476182725</v>
+        <v>0.2075945226783773</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01956116484976889</v>
+        <v>0.06194682640845883</v>
       </c>
       <c r="E4">
-        <v>0.06386878086799364</v>
+        <v>0.01650658713726205</v>
       </c>
       <c r="F4">
-        <v>5.645234355723602</v>
+        <v>6.003270927933471</v>
       </c>
       <c r="G4">
-        <v>0.002650553865668184</v>
+        <v>0.0008634237266195232</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.199895959969659</v>
+        <v>0.1502461200336001</v>
       </c>
       <c r="K4">
-        <v>1.532595508604857</v>
+        <v>1.443634401673506</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4293178096188228</v>
+        <v>0.2877122421128817</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1256039844385981</v>
+        <v>0.1994379468933118</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01892967298528703</v>
+        <v>0.05942413848882921</v>
       </c>
       <c r="E5">
-        <v>0.06402360523017681</v>
+        <v>0.01647078496192833</v>
       </c>
       <c r="F5">
-        <v>5.600229505118534</v>
+        <v>5.839455468121258</v>
       </c>
       <c r="G5">
-        <v>0.002652221433860459</v>
+        <v>0.0008661529642184882</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.199130373132661</v>
+        <v>0.1470439493503193</v>
       </c>
       <c r="K5">
-        <v>1.525124112823136</v>
+        <v>1.38450523274858</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4286146895431528</v>
+        <v>0.2772350353148738</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1252404077234104</v>
+        <v>0.1980870291195913</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01882490668131709</v>
+        <v>0.05900666149315015</v>
       </c>
       <c r="E6">
-        <v>0.06404979071728079</v>
+        <v>0.01646537380628921</v>
       </c>
       <c r="F6">
-        <v>5.592773450594649</v>
+        <v>5.812369556729777</v>
       </c>
       <c r="G6">
-        <v>0.002652501302927458</v>
+        <v>0.0008666086259646968</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1990039618791073</v>
+        <v>0.1465149788164553</v>
       </c>
       <c r="K6">
-        <v>1.523909272695647</v>
+        <v>1.374751217806335</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.428504329942939</v>
+        <v>0.2755085896077887</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1277709437305248</v>
+        <v>0.2074842823649306</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01955264203804319</v>
+        <v>0.0619127065507783</v>
       </c>
       <c r="E7">
-        <v>0.06387083691461015</v>
+        <v>0.01650606828895906</v>
       </c>
       <c r="F7">
-        <v>5.644626263790656</v>
+        <v>6.001053726248983</v>
       </c>
       <c r="G7">
-        <v>0.002650576155940848</v>
+        <v>0.00086346036973463</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.199885587081198</v>
+        <v>0.1502027464982945</v>
       </c>
       <c r="K7">
-        <v>1.532493017430824</v>
+        <v>1.442832560417742</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.429307898368414</v>
+        <v>0.2875700353989146</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1391085951186426</v>
+        <v>0.2495125315798532</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0227784290155455</v>
+        <v>0.07497869886024944</v>
       </c>
       <c r="E8">
-        <v>0.06315038735699829</v>
+        <v>0.01676577269042223</v>
       </c>
       <c r="F8">
-        <v>5.875944890208189</v>
+        <v>6.85255815896204</v>
       </c>
       <c r="G8">
-        <v>0.002642511487363905</v>
+        <v>0.0008499100059360387</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2038804088939514</v>
+        <v>0.1669179102365135</v>
       </c>
       <c r="K8">
-        <v>1.574130851720724</v>
+        <v>1.753650849467419</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4337848973835534</v>
+        <v>0.3429157121630908</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1619555848001539</v>
+        <v>0.3345374384385167</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02916622327664697</v>
+        <v>0.1018747520797092</v>
       </c>
       <c r="E9">
-        <v>0.06198547473681515</v>
+        <v>0.01759095451438242</v>
       </c>
       <c r="F9">
-        <v>6.338946363880041</v>
+        <v>8.613146855618481</v>
       </c>
       <c r="G9">
-        <v>0.002628232026333055</v>
+        <v>0.0008243776034099921</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2120962445639947</v>
+        <v>0.2017500630178404</v>
       </c>
       <c r="K9">
-        <v>1.669426863508875</v>
+        <v>2.411999498388354</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4459298206112976</v>
+        <v>0.4611712842307725</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1791177055421542</v>
+        <v>0.3992428797856604</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0339070825373966</v>
+        <v>0.1228614638757506</v>
       </c>
       <c r="E10">
-        <v>0.06127991148028755</v>
+        <v>0.01842094491741086</v>
       </c>
       <c r="F10">
-        <v>6.685245443518369</v>
+        <v>9.98760924060619</v>
       </c>
       <c r="G10">
-        <v>0.002618665235652102</v>
+        <v>0.0008060413858378128</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2183725938110896</v>
+        <v>0.2291131128166199</v>
       </c>
       <c r="K10">
-        <v>1.747899756570746</v>
+        <v>2.938465968214246</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4569258596651409</v>
+        <v>0.5563526543433071</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1870075621961433</v>
+        <v>0.4293321045562664</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03607636725023156</v>
+        <v>0.1327952163018011</v>
       </c>
       <c r="E11">
-        <v>0.06099140135533077</v>
+        <v>0.01885539451137497</v>
       </c>
       <c r="F11">
-        <v>6.844208980118992</v>
+        <v>10.63729957115936</v>
       </c>
       <c r="G11">
-        <v>0.00261451126866552</v>
+        <v>0.0007977352726283161</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2212816639493624</v>
+        <v>0.2420845787780905</v>
       </c>
       <c r="K11">
-        <v>1.785468009893009</v>
+        <v>3.190782166921053</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4623833745018615</v>
+        <v>0.6020963888103523</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1900071510025754</v>
+        <v>0.4408362710108946</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03689980724732322</v>
+        <v>0.1366244653468414</v>
       </c>
       <c r="E12">
-        <v>0.06088680378903177</v>
+        <v>0.01902891003428664</v>
       </c>
       <c r="F12">
-        <v>6.90461683841022</v>
+        <v>10.88751466079032</v>
       </c>
       <c r="G12">
-        <v>0.002612966551834872</v>
+        <v>0.0007945894358258357</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2223911292819878</v>
+        <v>0.2470856409884163</v>
       </c>
       <c r="K12">
-        <v>1.799965581916183</v>
+        <v>3.288527424164158</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4645158539777441</v>
+        <v>0.619834546706187</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1893606082664547</v>
+        <v>0.4383534718953115</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03672237412041568</v>
+        <v>0.1357965523726108</v>
       </c>
       <c r="E13">
-        <v>0.06090912390236625</v>
+        <v>0.01899112569345895</v>
       </c>
       <c r="F13">
-        <v>6.891597405935784</v>
+        <v>10.83342797206569</v>
       </c>
       <c r="G13">
-        <v>0.00261329797842504</v>
+        <v>0.0007952670680175949</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2221518345797762</v>
+        <v>0.2460043697216605</v>
       </c>
       <c r="K13">
-        <v>1.796831167256528</v>
+        <v>3.267372138177677</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4640536524368599</v>
+        <v>0.6159946702721015</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1872541023845997</v>
+        <v>0.4302762549795318</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03614407156641164</v>
+        <v>0.1331088216951599</v>
       </c>
       <c r="E14">
-        <v>0.06098270282556761</v>
+        <v>0.01886948423260648</v>
       </c>
       <c r="F14">
-        <v>6.849174490364135</v>
+        <v>10.65779664086887</v>
       </c>
       <c r="G14">
-        <v>0.002614383617752172</v>
+        <v>0.0007974765078346332</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2213727821001044</v>
+        <v>0.2424941479465019</v>
       </c>
       <c r="K14">
-        <v>1.786655283369271</v>
+        <v>3.198777413602329</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4625574933133905</v>
+        <v>0.6035469720879973</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1859653520231745</v>
+        <v>0.4253435657224003</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03579010707031216</v>
+        <v>0.131471693909063</v>
       </c>
       <c r="E15">
-        <v>0.06102837790490412</v>
+        <v>0.01879617375439224</v>
       </c>
       <c r="F15">
-        <v>6.823216998190674</v>
+        <v>10.55078520189363</v>
       </c>
       <c r="G15">
-        <v>0.002615052283450916</v>
+        <v>0.0007988296089786915</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2208966173039073</v>
+        <v>0.2403560776183582</v>
       </c>
       <c r="K15">
-        <v>1.780457660199772</v>
+        <v>3.157059055616969</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4616496373683674</v>
+        <v>0.595978671849565</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1786037473397926</v>
+        <v>0.3972909593010598</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03376558281765085</v>
+        <v>0.1222210298080171</v>
       </c>
       <c r="E16">
-        <v>0.06129941833083308</v>
+        <v>0.01839376442259422</v>
       </c>
       <c r="F16">
-        <v>6.674886107005733</v>
+        <v>9.945697686693336</v>
       </c>
       <c r="G16">
-        <v>0.002618940677038052</v>
+        <v>0.000806584462629947</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2181835736562689</v>
+        <v>0.2282770621972858</v>
       </c>
       <c r="K16">
-        <v>1.745482418807427</v>
+        <v>2.922263509977853</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4565783914815498</v>
+        <v>0.5534176572590184</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1741088107454232</v>
+        <v>0.3802598740249721</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03252695510667536</v>
+        <v>0.1166530186533663</v>
       </c>
       <c r="E17">
-        <v>0.06147399656702746</v>
+        <v>0.01816201266585082</v>
       </c>
       <c r="F17">
-        <v>6.584260590507938</v>
+        <v>9.581204587266853</v>
       </c>
       <c r="G17">
-        <v>0.002621376672337151</v>
+        <v>0.000811347136153279</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2165330981926772</v>
+        <v>0.2210102499836424</v>
       </c>
       <c r="K17">
-        <v>1.724506953883491</v>
+        <v>2.781742460943235</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4535842253022508</v>
+        <v>0.5279766431054398</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1715312295997933</v>
+        <v>0.3705245684720211</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03181570962253488</v>
+        <v>0.1134860357105651</v>
       </c>
       <c r="E18">
-        <v>0.06157746478234039</v>
+        <v>0.01803401340956157</v>
       </c>
       <c r="F18">
-        <v>6.532269448865605</v>
+        <v>9.373811943378342</v>
       </c>
       <c r="G18">
-        <v>0.002622796441101434</v>
+        <v>0.0008140901849845542</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2155888576220377</v>
+        <v>0.2168789438040406</v>
       </c>
       <c r="K18">
-        <v>1.712618343534245</v>
+        <v>2.702101089479868</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4519048988341225</v>
+        <v>0.5135693719383099</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1706598431823494</v>
+        <v>0.367238305336798</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03157509198686625</v>
+        <v>0.1124195291503156</v>
       </c>
       <c r="E19">
-        <v>0.0616130224829643</v>
+        <v>0.01799156208187824</v>
       </c>
       <c r="F19">
-        <v>6.514689015308704</v>
+        <v>9.303960598141231</v>
       </c>
       <c r="G19">
-        <v>0.00262328035858641</v>
+        <v>0.0008150197219271928</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2152700213562184</v>
+        <v>0.2154880790876277</v>
       </c>
       <c r="K19">
-        <v>1.708623209842216</v>
+        <v>2.675329158688101</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4513436546652585</v>
+        <v>0.5087282966657156</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1745864986220766</v>
+        <v>0.3820664895195307</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03265868581303266</v>
+        <v>0.117241979156546</v>
       </c>
       <c r="E20">
-        <v>0.06145509627759616</v>
+        <v>0.01818612915436013</v>
       </c>
       <c r="F20">
-        <v>6.593893892078427</v>
+        <v>9.619767641715299</v>
       </c>
       <c r="G20">
-        <v>0.002621115427636502</v>
+        <v>0.0008108397972079739</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2167082686915975</v>
+        <v>0.221778715745188</v>
       </c>
       <c r="K20">
-        <v>1.726721604127277</v>
+        <v>2.796576391916943</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4538985232146757</v>
+        <v>0.5306610884401408</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1878725122224978</v>
+        <v>0.4326456052788359</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03631387804719566</v>
+        <v>0.1338963350935813</v>
       </c>
       <c r="E21">
-        <v>0.06096096467144996</v>
+        <v>0.0189049618783681</v>
       </c>
       <c r="F21">
-        <v>6.861629330985068</v>
+        <v>10.70926411841015</v>
       </c>
       <c r="G21">
-        <v>0.002614063972426093</v>
+        <v>0.0007968276036755225</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2216013944037485</v>
+        <v>0.2435226479540376</v>
       </c>
       <c r="K21">
-        <v>1.78963680569251</v>
+        <v>3.218862544626916</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4629951618137795</v>
+        <v>0.6071913043227894</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1966248754483928</v>
+        <v>0.4663523851807412</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.03871436808326223</v>
+        <v>0.1451817097245112</v>
       </c>
       <c r="E22">
-        <v>0.06066514843950621</v>
+        <v>0.01942769164626412</v>
       </c>
       <c r="F22">
-        <v>7.03784746605254</v>
+        <v>11.44614291042529</v>
       </c>
       <c r="G22">
-        <v>0.00260962031443931</v>
+        <v>0.0007876636907502774</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2248452220866994</v>
+        <v>0.2582606852776195</v>
       </c>
       <c r="K22">
-        <v>1.832337928446577</v>
+        <v>3.507877897071921</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4693242639454169</v>
+        <v>0.6596713640601308</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1919472514772025</v>
+        <v>0.4482970702126465</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03743206547738964</v>
+        <v>0.1391173421315699</v>
       </c>
       <c r="E23">
-        <v>0.06082055283233956</v>
+        <v>0.01914355195430772</v>
       </c>
       <c r="F23">
-        <v>6.943681242629395</v>
+        <v>11.05033106752586</v>
       </c>
       <c r="G23">
-        <v>0.002611976949792815</v>
+        <v>0.0007925572835490799</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2231096949909386</v>
+        <v>0.2503413458893959</v>
       </c>
       <c r="K23">
-        <v>1.809401966424502</v>
+        <v>3.352299004657254</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4659110530270496</v>
+        <v>0.6314120922781186</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1743705153182873</v>
+        <v>0.3812495451136328</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03259912770033679</v>
+        <v>0.1169756046459014</v>
       </c>
       <c r="E24">
-        <v>0.06146363143905909</v>
+        <v>0.01817520983509446</v>
       </c>
       <c r="F24">
-        <v>6.589538332172907</v>
+        <v>9.602326608745187</v>
       </c>
       <c r="G24">
-        <v>0.002621233476446099</v>
+        <v>0.0008110691496110314</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2166290596654221</v>
+        <v>0.2214311486012974</v>
       </c>
       <c r="K24">
-        <v>1.725719829968426</v>
+        <v>2.789866427973095</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4537562981491376</v>
+        <v>0.529446772948873</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1557089270916947</v>
+        <v>0.3111942835792689</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02743049289203725</v>
+        <v>0.09441952491889083</v>
       </c>
       <c r="E25">
-        <v>0.06227416235906169</v>
+        <v>0.01733093572984146</v>
       </c>
       <c r="F25">
-        <v>6.212645293008563</v>
+        <v>8.124704372146141</v>
       </c>
       <c r="G25">
-        <v>0.00263193183729944</v>
+        <v>0.0008311936309068038</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2098320000983591</v>
+        <v>0.1920576912139822</v>
       </c>
       <c r="K25">
-        <v>1.642171689717429</v>
+        <v>2.227440923234269</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4422818177564309</v>
+        <v>0.42791469493676</v>
       </c>
       <c r="N25">
         <v>0</v>
